--- a/currentbuild/StructureDefinition-lmdi-practitionerrole.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-practitionerrole.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-practitionerrole</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>HL7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>HL7 Norge (https://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
